--- a/Configurations/LipSync_Desk_Mount/Documentation/LipSync_Desk_Mount_BOM.xlsx
+++ b/Configurations/LipSync_Desk_Mount/Documentation/LipSync_Desk_Mount_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Jake\Dropbox\Makers Making Change\Projects\Mounting\PVC\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Jake\Dropbox\Makers Making Change\Projects\Mounting\PVC\7-Publishing\GitHub\PVC-Accessible-Mounting-System\Configurations\LipSync_Desk_Mount\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBD109A-8BCC-4019-A752-085355C65AC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534EE112-4828-4F73-BEBF-E02AB1366417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -77,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Link</t>
   </si>
@@ -106,9 +109,6 @@
     <t>COTS Parts</t>
   </si>
   <si>
-    <t>3D Printed Parts</t>
-  </si>
-  <si>
     <t>Unit Qty</t>
   </si>
   <si>
@@ -127,12 +127,6 @@
     <t>1 foot length</t>
   </si>
   <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Total Mass</t>
-  </si>
-  <si>
     <t>Aluminum Rod</t>
   </si>
   <si>
@@ -185,18 +179,6 @@
   </si>
   <si>
     <t>C-Clamp 2 in</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Manfrotto-035RL-Super-Clamp-Standard/dp/B0018LQVIA</t>
-  </si>
-  <si>
-    <t>Super Clamp</t>
-  </si>
-  <si>
-    <t>Amazon.ca</t>
   </si>
   <si>
     <t>Lipsync PVC Mounting Kit: BOM</t>
@@ -616,10 +598,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection sqref="A1:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +624,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="61.5" x14ac:dyDescent="0.9">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
@@ -670,19 +655,19 @@
         <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="M3" t="s">
         <v>0</v>
@@ -690,10 +675,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -722,18 +707,18 @@
         <v>3.74</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -761,18 +746,18 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -800,15 +785,15 @@
         <v>0.89</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -836,15 +821,15 @@
         <v>1.98</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -872,15 +857,15 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -908,15 +893,15 @@
         <v>6.7200000000000006</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0.1</v>
@@ -946,10 +931,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -990,232 +975,46 @@
       <c r="M12" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <f>25/1000</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" t="s">
-        <v>17</v>
-      </c>
+      <c r="A14" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>0.5</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16" s="5">
-        <f>D16*$F$14</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G16" s="5">
-        <f>F16*E16</f>
-        <v>0.125</v>
-      </c>
-      <c r="L16">
-        <f>D16*E16</f>
-        <v>5</v>
-      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" ref="F17:F24" si="4">D17*$F$14</f>
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" ref="G17:G24" si="5">F17*E17</f>
-        <v>0.5</v>
-      </c>
-      <c r="L17">
-        <f t="shared" ref="L17:L24" si="6">D17*E17</f>
-        <v>20</v>
-      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D19">
-        <f>72/6</f>
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="4"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="5"/>
-        <v>0.90000000000000013</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>13</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="4"/>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="5"/>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="4"/>
-        <v>0.05</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>9.5</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="4"/>
-        <v>0.23750000000000002</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="5"/>
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="6"/>
-        <v>28.5</v>
-      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <v>8</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="5"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="5"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G25">
-        <f>SUM(G16:G24)</f>
-        <v>4.3625000000000007</v>
-      </c>
-      <c r="L25">
-        <f>SUM(L16:L24)</f>
-        <v>174.5</v>
-      </c>
-    </row>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="N27" s="6"/>
@@ -1224,41 +1023,11 @@
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" ref="F28" si="7">I28/H28</f>
-        <v>49.99</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" ref="G28" si="8">E28*F28</f>
-        <v>49.99</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>49.99</v>
-      </c>
-      <c r="J28">
-        <f t="shared" ref="J28" si="9">ROUNDUP(E28/H28,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" ref="K28" si="10">J28*I28</f>
-        <v>49.99</v>
-      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="M28" s="1"/>
       <c r="N28" s="6"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -1394,9 +1163,9 @@
     <hyperlink ref="M5" r:id="rId4" xr:uid="{95C357AB-0DA5-4A55-85E1-61726B1E66BE}"/>
     <hyperlink ref="M4" r:id="rId5" xr:uid="{9190A444-7E7D-437B-84F8-25815F1EC15C}"/>
     <hyperlink ref="M7" r:id="rId6" xr:uid="{6849E17B-982A-4A7D-8661-C512DCDCCDD2}"/>
-    <hyperlink ref="M28" r:id="rId7" xr:uid="{651D6A2E-F1EE-47D2-BA69-3273AB9CB356}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="49" orientation="landscape" r:id="rId7"/>
   <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
@@ -1413,17 +1182,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
